--- a/PycharmProjects/Excel/comcfg.xlsx
+++ b/PycharmProjects/Excel/comcfg.xlsx
@@ -4,25 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9435"/>
+    <workbookView windowWidth="18135" windowHeight="6735"/>
   </bookViews>
   <sheets>
-    <sheet name="SelfInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="Sahara" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sahara" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
-  <si>
-    <t>本站名称</t>
-  </si>
-  <si>
-    <t>广生站</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>站名</t>
   </si>
@@ -67,7 +60,43 @@
     </r>
   </si>
   <si>
-    <t>星沙站</t>
+    <t>FBH</t>
+  </si>
+  <si>
+    <t>CYC</t>
+  </si>
+  <si>
+    <t>DTZ</t>
+  </si>
+  <si>
+    <t>GSZ</t>
+  </si>
+  <si>
+    <t>XSZ</t>
+  </si>
+  <si>
+    <t>LXC</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>YHG</t>
+  </si>
+  <si>
+    <t>STZ</t>
+  </si>
+  <si>
+    <t>YGZ</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>TYH</t>
+  </si>
+  <si>
+    <t>YHY</t>
   </si>
 </sst>
 </file>
@@ -76,11 +105,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +123,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -245,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +295,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,6 +367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,6 +385,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,18 +421,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,30 +475,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,48 +517,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -464,6 +541,26 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -569,156 +666,191 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,138 +1197,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" ht="15" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="4" ht="15" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,7 +1365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
